--- a/Homework/02_HazardAnalysisAndRiskAssessment_Template.xlsx
+++ b/Homework/02_HazardAnalysisAndRiskAssessment_Template.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="272">
   <si>
     <t xml:space="preserve">INSTRUCTIONS:</t>
   </si>
@@ -197,6 +197,18 @@
     <t xml:space="preserve">Driving in the rain is not as common as driving in normal conditions</t>
   </si>
   <si>
+    <t xml:space="preserve">S3 Fatal Injuries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High speed driving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3 Difficult to Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violent shaking of the steering wheel would be more than most drivers could handle in normal situations</t>
+  </si>
+  <si>
     <t xml:space="preserve">HA-002</t>
   </si>
   <si>
@@ -222,6 +234,12 @@
   </si>
   <si>
     <t xml:space="preserve">Driving on a country road does not happen as often as highway or city driving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2 Normally Controllable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lane Keep Assistance cancellation could happen while the vehicle is in a stable condition so transferring control back to the driver would be easy</t>
   </si>
   <si>
     <t xml:space="preserve">HA-003</t>
@@ -1417,8 +1435,8 @@
   </sheetPr>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R12" activeCellId="0" sqref="R12:S13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V13" activeCellId="0" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1432,8 +1450,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="27.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.43"/>
@@ -1886,10 +1904,18 @@
       <c r="P12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
+      <c r="Q12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="14"/>
@@ -1901,16 +1927,16 @@
     </row>
     <row r="13" s="16" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>36</v>
@@ -1921,33 +1947,41 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L13" s="13" t="s">
         <v>41</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O13" s="13" t="s">
         <v>44</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
       <c r="W13" s="14"/>
@@ -1959,7 +1993,7 @@
     </row>
     <row r="14" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1991,7 +2025,7 @@
     </row>
     <row r="15" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2023,7 +2057,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +2085,7 @@
   <dimension ref="A1:Z110"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R12:S13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2084,7 +2118,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2171,16 +2205,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -2211,10 +2245,10 @@
         <v>OM01</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D5" s="26" t="str">
         <f aca="false">$A5 &amp; " - " &amp; $B5</f>
@@ -2249,10 +2283,10 @@
         <v>OM02</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D6" s="26" t="str">
         <f aca="false">$A6 &amp; " - " &amp; $B6</f>
@@ -2287,10 +2321,10 @@
         <v>OM03</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D7" s="26" t="str">
         <f aca="false">$A7 &amp; " - " &amp; $B7</f>
@@ -2325,10 +2359,10 @@
         <v>OM04</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D8" s="26" t="str">
         <f aca="false">$A8 &amp; " - " &amp; $B8</f>
@@ -2363,10 +2397,10 @@
         <v>OM05</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D9" s="26" t="str">
         <f aca="false">$A9 &amp; " - " &amp; $B9</f>
@@ -2401,10 +2435,10 @@
         <v>OM06</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D10" s="26" t="str">
         <f aca="false">$A10 &amp; " - " &amp; $B10</f>
@@ -2439,10 +2473,10 @@
         <v>OM07</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D11" s="26" t="str">
         <f aca="false">$A11 &amp; " - " &amp; $B11</f>
@@ -2477,10 +2511,10 @@
         <v>OM08</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D12" s="26" t="str">
         <f aca="false">$A12 &amp; " - " &amp; $B12</f>
@@ -2515,10 +2549,10 @@
         <v>OM09</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D13" s="26" t="str">
         <f aca="false">$A13 &amp; " - " &amp; $B13</f>
@@ -2635,16 +2669,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -2675,10 +2709,10 @@
         <v>OS01</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D18" s="26" t="str">
         <f aca="false">$A18 &amp; " - " &amp; $B18</f>
@@ -2713,10 +2747,10 @@
         <v>OS02</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D19" s="26" t="str">
         <f aca="false">$A19 &amp; " - " &amp; $B19</f>
@@ -2751,10 +2785,10 @@
         <v>OS03</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D20" s="26" t="str">
         <f aca="false">$A20 &amp; " - " &amp; $B20</f>
@@ -2792,7 +2826,7 @@
         <v>34</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D21" s="26" t="str">
         <f aca="false">$A21 &amp; " - " &amp; $B21</f>
@@ -2827,10 +2861,10 @@
         <v>OS05</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D22" s="26" t="str">
         <f aca="false">$A22 &amp; " - " &amp; $B22</f>
@@ -2865,10 +2899,10 @@
         <v>OS06</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D23" s="26" t="str">
         <f aca="false">$A23 &amp; " - " &amp; $B23</f>
@@ -2903,10 +2937,10 @@
         <v>OS07</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D24" s="26" t="str">
         <f aca="false">$A24 &amp; " - " &amp; $B24</f>
@@ -2941,10 +2975,10 @@
         <v>OS08</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D25" s="26" t="str">
         <f aca="false">$A25 &amp; " - " &amp; $B25</f>
@@ -2979,10 +3013,10 @@
         <v>OS09</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D26" s="26" t="str">
         <f aca="false">$A26 &amp; " - " &amp; $B26</f>
@@ -3017,10 +3051,10 @@
         <v>OS10</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D27" s="26" t="str">
         <f aca="false">$A27 &amp; " - " &amp; $B27</f>
@@ -3055,10 +3089,10 @@
         <v>OS11</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D28" s="26" t="str">
         <f aca="false">$A28 &amp; " - " &amp; $B28</f>
@@ -3175,16 +3209,16 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -3215,10 +3249,10 @@
         <v>SD01</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D33" s="26" t="str">
         <f aca="false">$A33 &amp; " - " &amp; $B33</f>
@@ -3253,10 +3287,10 @@
         <v>SD02</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D34" s="26" t="str">
         <f aca="false">$A34 &amp; " - " &amp; $B34</f>
@@ -3291,10 +3325,10 @@
         <v>SD03</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D35" s="26" t="str">
         <f aca="false">$A35 &amp; " - " &amp; $B35</f>
@@ -3329,10 +3363,10 @@
         <v>SD04</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D36" s="26" t="str">
         <f aca="false">$A36 &amp; " - " &amp; $B36</f>
@@ -3367,10 +3401,10 @@
         <v>SD05</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D37" s="26" t="str">
         <f aca="false">$A37 &amp; " - " &amp; $B37</f>
@@ -3405,10 +3439,10 @@
         <v>SD06</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D38" s="26" t="str">
         <f aca="false">$A38 &amp; " - " &amp; $B38</f>
@@ -3443,10 +3477,10 @@
         <v>SD07</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D39" s="26" t="str">
         <f aca="false">$A39 &amp; " - " &amp; $B39</f>
@@ -3533,7 +3567,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -3563,16 +3597,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -3603,10 +3637,10 @@
         <v>IU01</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D44" s="26" t="str">
         <f aca="false">$A44 &amp; " - " &amp; $B44</f>
@@ -3641,10 +3675,10 @@
         <v>IU02</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D45" s="26" t="str">
         <f aca="false">$A45 &amp; " - " &amp; $B45</f>
@@ -3679,10 +3713,10 @@
         <v>IU03</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D46" s="26" t="str">
         <f aca="false">$A46 &amp; " - " &amp; $B46</f>
@@ -3799,16 +3833,16 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -3839,10 +3873,10 @@
         <v>EN01</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D51" s="26" t="str">
         <f aca="false">$A51 &amp; " - " &amp; $B51</f>
@@ -3877,10 +3911,10 @@
         <v>EN02</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D52" s="26" t="str">
         <f aca="false">$A52 &amp; " - " &amp; $B52</f>
@@ -3915,10 +3949,10 @@
         <v>EN03</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D53" s="26" t="str">
         <f aca="false">$A53 &amp; " - " &amp; $B53</f>
@@ -3953,10 +3987,10 @@
         <v>EN04</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D54" s="26" t="str">
         <f aca="false">$A54 &amp; " - " &amp; $B54</f>
@@ -3991,10 +4025,10 @@
         <v>EN05</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D55" s="26" t="str">
         <f aca="false">$A55 &amp; " - " &amp; $B55</f>
@@ -4032,7 +4066,7 @@
         <v>35</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D56" s="26" t="str">
         <f aca="false">$A56 &amp; " - " &amp; $B56</f>
@@ -4067,10 +4101,10 @@
         <v>EN07</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D57" s="26" t="str">
         <f aca="false">$A57 &amp; " - " &amp; $B57</f>
@@ -4105,10 +4139,10 @@
         <v>EN08</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D58" s="26" t="str">
         <f aca="false">$A58 &amp; " - " &amp; $B58</f>
@@ -4143,10 +4177,10 @@
         <v>EN09</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D59" s="26" t="str">
         <f aca="false">$A59 &amp; " - " &amp; $B59</f>
@@ -5126,7 +5160,7 @@
   <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T6" activeCellId="1" sqref="R12:S13 T6"/>
+      <selection pane="topLeft" activeCell="T6" activeCellId="0" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5191,7 +5225,7 @@
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="28"/>
       <c r="B2" s="29" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -5297,7 +5331,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>15</v>
@@ -5312,7 +5346,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>20</v>
@@ -5366,64 +5400,64 @@
         <v>33</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="O6" s="34" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="S6" s="34" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="T6" s="34" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="U6" s="34" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="V6" s="34" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="W6" s="35" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
@@ -5528,7 +5562,7 @@
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="20"/>
       <c r="B10" s="29" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -5594,7 +5628,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -5641,7 +5675,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>15</v>
@@ -5656,7 +5690,7 @@
         <v>18</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>20</v>
@@ -5706,67 +5740,67 @@
         <v>32</v>
       </c>
       <c r="C14" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="T14" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="U14" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="V14" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="M14" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="N14" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="P14" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q14" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="R14" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="S14" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="T14" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="U14" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="V14" s="34" t="s">
-        <v>130</v>
-      </c>
       <c r="W14" s="35" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
@@ -5777,70 +5811,70 @@
     </row>
     <row r="15" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E15" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>138</v>
-      </c>
       <c r="I15" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="J15" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>140</v>
-      </c>
       <c r="L15" s="34" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M15" s="34" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q15" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="S15" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="R15" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="S15" s="34" t="s">
-        <v>142</v>
-      </c>
       <c r="T15" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="U15" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="V15" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="W15" s="35" t="s">
         <v>149</v>
-      </c>
-      <c r="U15" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="V15" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="W15" s="35" t="s">
-        <v>143</v>
       </c>
       <c r="X15" s="17"/>
       <c r="Y15" s="17"/>
@@ -5851,70 +5885,70 @@
     </row>
     <row r="16" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="34" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E16" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>138</v>
-      </c>
       <c r="I16" s="34" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L16" s="34" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="N16" s="34" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="S16" s="34" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="T16" s="34" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="U16" s="34" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="V16" s="34" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
@@ -5925,70 +5959,70 @@
     </row>
     <row r="17" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="34" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F17" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="R17" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="G17" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="M17" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q17" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="R17" s="34" t="s">
-        <v>158</v>
-      </c>
       <c r="S17" s="34" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="T17" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="U17" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="V17" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="W17" s="35" t="s">
         <v>149</v>
-      </c>
-      <c r="U17" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="V17" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="W17" s="35" t="s">
-        <v>143</v>
       </c>
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
@@ -5999,70 +6033,70 @@
     </row>
     <row r="18" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="34" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E18" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>138</v>
-      </c>
       <c r="I18" s="34" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M18" s="34" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q18" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="R18" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="S18" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="R18" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="S18" s="34" t="s">
-        <v>170</v>
-      </c>
       <c r="T18" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="U18" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="U18" s="34" t="s">
-        <v>171</v>
-      </c>
       <c r="V18" s="34" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="W18" s="35" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="X18" s="17"/>
       <c r="Y18" s="17"/>
@@ -6980,7 +7014,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R12:S13 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7022,7 +7056,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -7052,16 +7086,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -7092,10 +7126,10 @@
         <v>DV01</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D4" s="26" t="str">
         <f aca="false">$A4 &amp; " - " &amp; $B4</f>
@@ -7130,10 +7164,10 @@
         <v>DV02</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D5" s="26" t="str">
         <f aca="false">$A5 &amp; " - " &amp; $B5</f>
@@ -7168,10 +7202,10 @@
         <v>DV03</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D6" s="26" t="str">
         <f aca="false">$A6 &amp; " - " &amp; $B6</f>
@@ -7209,7 +7243,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D7" s="26" t="str">
         <f aca="false">$A7 &amp; " - " &amp; $B7</f>
@@ -7244,10 +7278,10 @@
         <v>DV05</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D8" s="26" t="str">
         <f aca="false">$A8 &amp; " - " &amp; $B8</f>
@@ -7282,10 +7316,10 @@
         <v>DV06</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D9" s="26" t="str">
         <f aca="false">$A9 &amp; " - " &amp; $B9</f>
@@ -7320,10 +7354,10 @@
         <v>DV07</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D10" s="26" t="str">
         <f aca="false">$A10 &amp; " - " &amp; $B10</f>
@@ -7358,10 +7392,10 @@
         <v>DV08</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D11" s="26" t="str">
         <f aca="false">$A11 &amp; " - " &amp; $B11</f>
@@ -7396,10 +7430,10 @@
         <v>DV09</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D12" s="26" t="str">
         <f aca="false">$A12 &amp; " - " &amp; $B12</f>
@@ -7434,10 +7468,10 @@
         <v>DV10</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D13" s="26" t="str">
         <f aca="false">$A13 &amp; " - " &amp; $B13</f>
@@ -7472,10 +7506,10 @@
         <v>DV11</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D14" s="26" t="str">
         <f aca="false">$A14 &amp; " - " &amp; $B14</f>
@@ -7510,10 +7544,10 @@
         <v>DV12</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D15" s="26" t="str">
         <f aca="false">$A15 &amp; " - " &amp; $B15</f>
@@ -7548,10 +7582,10 @@
         <v>DV13</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D16" s="26" t="str">
         <f aca="false">$A16 &amp; " - " &amp; $B16</f>
@@ -7586,10 +7620,10 @@
         <v>DV14</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D17" s="26" t="str">
         <f aca="false">$A17 &amp; " - " &amp; $B17</f>
@@ -7624,10 +7658,10 @@
         <v>DV15</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D18" s="26" t="str">
         <f aca="false">$A18 &amp; " - " &amp; $B18</f>
@@ -7662,10 +7696,10 @@
         <v>DV16</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D19" s="26" t="str">
         <f aca="false">$A19 &amp; " - " &amp; $B19</f>
@@ -7700,10 +7734,10 @@
         <v>DV17</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D20" s="26" t="str">
         <f aca="false">$A20 &amp; " - " &amp; $B20</f>
@@ -7738,10 +7772,10 @@
         <v>DV18</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D21" s="26" t="str">
         <f aca="false">$A21 &amp; " - " &amp; $B21</f>
@@ -7776,10 +7810,10 @@
         <v>DV19</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D22" s="26" t="str">
         <f aca="false">$A22 &amp; " - " &amp; $B22</f>
@@ -7814,10 +7848,10 @@
         <v>DV20</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D23" s="26" t="str">
         <f aca="false">$A23 &amp; " - " &amp; $B23</f>
@@ -7904,7 +7938,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="39" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
@@ -7934,16 +7968,16 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="41" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
@@ -7974,7 +8008,7 @@
         <v>EV-07</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C28" s="45"/>
       <c r="D28" s="46" t="str">
@@ -8010,7 +8044,7 @@
         <v>EV-06</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C29" s="45"/>
       <c r="D29" s="46" t="str">
@@ -8046,7 +8080,7 @@
         <v>EV-05</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="46" t="str">
@@ -8082,7 +8116,7 @@
         <v>EV-04</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C31" s="45"/>
       <c r="D31" s="46" t="str">
@@ -8118,7 +8152,7 @@
         <v>EV-03</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C32" s="45"/>
       <c r="D32" s="46" t="str">
@@ -8154,7 +8188,7 @@
         <v>EV-02</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C33" s="45"/>
       <c r="D33" s="46" t="str">
@@ -8190,7 +8224,7 @@
         <v>EV-01</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C34" s="45"/>
       <c r="D34" s="46" t="str">
@@ -8262,7 +8296,7 @@
         <v>EV01</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C36" s="45"/>
       <c r="D36" s="46" t="str">
@@ -8298,7 +8332,7 @@
         <v>EV02</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C37" s="45"/>
       <c r="D37" s="46" t="str">
@@ -8334,7 +8368,7 @@
         <v>EV03</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C38" s="45"/>
       <c r="D38" s="46" t="str">
@@ -8370,7 +8404,7 @@
         <v>EV04</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C39" s="45"/>
       <c r="D39" s="46" t="str">
@@ -8406,7 +8440,7 @@
         <v>EV05</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C40" s="45"/>
       <c r="D40" s="46" t="str">
@@ -8442,7 +8476,7 @@
         <v>EV06</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C41" s="45"/>
       <c r="D41" s="46" t="str">
@@ -8520,7 +8554,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="1" sqref="R12:S13 E22"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8534,7 +8568,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -8564,19 +8598,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -8602,10 +8636,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="49" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -8637,16 +8671,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="49" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E4" s="26" t="str">
         <f aca="false">$A4 &amp; " - " &amp; $B4</f>
@@ -8676,16 +8710,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="49" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E5" s="26" t="str">
         <f aca="false">$A5 &amp; " - " &amp; $B5</f>
@@ -8715,16 +8749,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="49" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E6" s="26" t="str">
         <f aca="false">$A6 &amp; " - " &amp; $B6</f>
@@ -8754,16 +8788,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E7" s="26" t="str">
         <f aca="false">$A7 &amp; " - " &amp; $B7</f>
@@ -8849,7 +8883,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -8879,19 +8913,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -8917,16 +8951,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="49" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E12" s="26" t="str">
         <f aca="false">$A12 &amp; " - " &amp; $B12</f>
@@ -8956,16 +8990,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="49" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E13" s="26" t="str">
         <f aca="false">$A13 &amp; " - " &amp; $B13</f>
@@ -8995,16 +9029,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="49" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E14" s="26" t="str">
         <f aca="false">$A14 &amp; " - " &amp; $B14</f>
@@ -9034,16 +9068,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="49" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E15" s="26" t="str">
         <f aca="false">$A15 &amp; " - " &amp; $B15</f>
@@ -9129,7 +9163,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -9159,17 +9193,17 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D19" s="51"/>
       <c r="E19" s="23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
@@ -9195,13 +9229,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="49" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D20" s="53"/>
       <c r="E20" s="26" t="str">
@@ -9232,13 +9266,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="49" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D21" s="53"/>
       <c r="E21" s="26" t="str">
@@ -9269,13 +9303,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="49" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D22" s="53"/>
       <c r="E22" s="26" t="str">
@@ -9306,13 +9340,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="49" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D23" s="53"/>
       <c r="E23" s="26" t="str">
@@ -9388,7 +9422,7 @@
   <dimension ref="B2:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="1" sqref="R12:S13 D15"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9398,13 +9432,13 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="56" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E2" s="58"/>
       <c r="F2" s="58"/>
@@ -9414,238 +9448,238 @@
       <c r="B3" s="56"/>
       <c r="C3" s="57"/>
       <c r="D3" s="45" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="59" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="59"/>
       <c r="C5" s="60" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="59"/>
       <c r="C6" s="60" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="59"/>
       <c r="C7" s="60" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E7" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="59" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="59"/>
       <c r="C9" s="60" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="59"/>
       <c r="C10" s="60" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="59"/>
       <c r="C11" s="60" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="59" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="59"/>
       <c r="C13" s="60" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="59"/>
       <c r="C14" s="60" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="59"/>
       <c r="C15" s="60" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/Homework/02_HazardAnalysisAndRiskAssessment_Template.xlsx
+++ b/Homework/02_HazardAnalysisAndRiskAssessment_Template.xlsx
@@ -1498,8 +1498,8 @@
   </sheetPr>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V12" activeCellId="0" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1514,7 +1514,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="27.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.43"/>
@@ -1523,8 +1523,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="40.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="29.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="14.43"/>
   </cols>
   <sheetData>

--- a/Homework/02_HazardAnalysisAndRiskAssessment_Template.xlsx
+++ b/Homework/02_HazardAnalysisAndRiskAssessment_Template.xlsx
@@ -9,31 +9,31 @@
   </bookViews>
   <sheets>
     <sheet name="Hazard Analysis and Risk Assess" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Examples" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Hazard Analysis Guidewords" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Situational Analysis Guidewords" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Severity, Exposure, Controllabi" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Severity, Exposure, Controllabi" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Examples" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Hazard Analysis Guidewords" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Situational Analysis Guidewords" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="ASIL Table" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="1" name="C_List" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="DV_List" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="EN_List" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="E_List" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="IU_List" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="OM_List" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="OS_List" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="SD_List" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="S_List" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="C_List" vbProcedure="false">'Severity, Exposure, Controllabi'!$E$20:$E$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="DV_List" vbProcedure="false">'Hazard Analysis Guidewords'!$D$4:$D$24</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="EN_List" vbProcedure="false">'Situational Analysis Guidewords'!$D$51:$D$60</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="E_List" vbProcedure="false">'Severity, Exposure, Controllabi'!$E$3:$E$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="IU_List" vbProcedure="false">'Situational Analysis Guidewords'!$D$44:$D$47</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="OM_List" vbProcedure="false">'Situational Analysis Guidewords'!$D$5:$D$14</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="OS_List" vbProcedure="false">'Situational Analysis Guidewords'!$D$18:$D$29</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="SD_List" vbProcedure="false">'Situational Analysis Guidewords'!$D$33:$D$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="S_List" vbProcedure="false">'Severity, Exposure, Controllabi'!$E$12:$E$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="C_List" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="DV_List" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="EN_List" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="E_List" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="IU_List" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="OM_List" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="OS_List" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="SD_List" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="S_List" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="C_List" vbProcedure="false">'Severity, Exposure, Controllabi'!$E$20:$E$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="DV_List" vbProcedure="false">'Hazard Analysis Guidewords'!$D$4:$D$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="EN_List" vbProcedure="false">'Situational Analysis Guidewords'!$D$51:$D$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="E_List" vbProcedure="false">'Severity, Exposure, Controllabi'!$E$3:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="IU_List" vbProcedure="false">'Situational Analysis Guidewords'!$D$44:$D$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="OM_List" vbProcedure="false">'Situational Analysis Guidewords'!$D$5:$D$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="OS_List" vbProcedure="false">'Situational Analysis Guidewords'!$D$18:$D$29</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="SD_List" vbProcedure="false">'Situational Analysis Guidewords'!$D$33:$D$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="S_List" vbProcedure="false">'Severity, Exposure, Controllabi'!$E$12:$E$16</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="291">
   <si>
     <t xml:space="preserve">INSTRUCTIONS:</t>
   </si>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">ASIL C</t>
   </si>
   <si>
-    <t xml:space="preserve">The oscillating steering torque form the lane departure warning funciton shall be limited</t>
+    <t xml:space="preserve">The oscillating steering torque form the lane departure warning function shall be limited</t>
   </si>
   <si>
     <t xml:space="preserve">HA-002</t>
@@ -251,16 +251,226 @@
     <t xml:space="preserve">ASIL B</t>
   </si>
   <si>
-    <t xml:space="preserve">The land keeping assistance function shall be time limited and the additional steering torque shall end after a given time interval so that the driver cannot misuse the system for autonomous driving</t>
+    <t xml:space="preserve">The lane keeping assistance function shall be time limited and the additional steering torque shall end after a given time interval so that the driver cannot misuse the system for autonomous driving</t>
   </si>
   <si>
     <t xml:space="preserve">HA-003</t>
   </si>
   <si>
+    <t xml:space="preserve">City Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actor effect is too little</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The LDW function applies an oscillating torque with very low torque (not detectable by the driver)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low haptic feedback can cause the driver to not be aware that he/she has departed from the lane.  Possible collision with neighboring vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The LDW function applies too low and oscillating torque to the steering wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4 High Probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driving in the city is a very common occurrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1 Light and Moderate Injuries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Speed driving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainy conditions can adversely affect handling characteristics of the vehicle even at slow speeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lane departure warning  function shall output a torque that is strong enough to be felt by the driver</t>
+  </si>
+  <si>
     <t xml:space="preserve">HA-004</t>
   </si>
   <si>
-    <t xml:space="preserve">what is going on with the driver in the road?</t>
+    <t xml:space="preserve">Lane Keeping assist loses sight of lane lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The LKA loses sight of the lane lines and suddenly returns issues a strong steering command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The driver may not be ready for strong steering command and would have to correct vehicle trajectory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The LKA applies too strong of a steering action and cause unintended vehicle trajectory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovering from an sudden vehicle movement could be difficult for the driver to recover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lane keeping assistance function shall limit the correction torque in the event that lane lines are not detected properly to prevent accidental oversteering maneuvers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration (of situation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency (of situation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incredible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very low probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not specified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurs less often than once a year for the great majority of drivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1 % of average operating time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurs a few times a year for the great majority of drivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 % to 10 % of average operating time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurs once a month or more often for an average driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;10 % of average operating time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurs during almost every drive on average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability of Injuries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No injuries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIS 0 and less than 10 % probability of AIS 1-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light and moderate injuries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More than 10 % probability of AIS 1-6 (and not S2 or S3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severe and life-threatening injuries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severe and life-threatening injuries (survival probable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More than 10 % probability of AIS 3-6 (and not S3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life-threatening or fatal injuries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life-threatening injuries (survival uncertain), fatal injuries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More than 10 % probability of AIS 5-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controllability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controllable in general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simply controllable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99 % or more of all drivers or other traffic participants are usually able to avoid harm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normally controllable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 % or more of all drivers or other traffic participants are usually able to avoid harm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficult to control or uncontrollable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less than 90 % of all drivers or other traffic participants are usually able, or barely able, to avoid harm</t>
   </si>
   <si>
     <t xml:space="preserve">EXAMPLE DISCUSSED IN THE PROJECT INSTRUCTIONS - Headlamp System</t>
@@ -273,15 +483,9 @@
     <t xml:space="preserve">Deviation</t>
   </si>
   <si>
-    <t xml:space="preserve">City Road</t>
-  </si>
-  <si>
     <t xml:space="preserve">Normal Conditions</t>
   </si>
   <si>
-    <t xml:space="preserve">Low Speed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Night time + Obstacle on the road</t>
   </si>
   <si>
@@ -471,18 +675,9 @@
     <t xml:space="preserve">C3 - Difficult to control or uncontrollable</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deviation (Guideword)</t>
   </si>
   <si>
-    <t xml:space="preserve">Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
-  </si>
-  <si>
     <t xml:space="preserve">Activation error</t>
   </si>
   <si>
@@ -730,156 +925,6 @@
   </si>
   <si>
     <t xml:space="preserve">Glace (slippery road)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exposure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration (of situation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequency (of situation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incredible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very low probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not specified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurs less often than once a year for the great majority of drivers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;1 % of average operating time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurs a few times a year for the great majority of drivers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 % to 10 % of average operating time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurs once a month or more often for an average driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;10 % of average operating time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occurs during almost every drive on average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Severity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probability of Injuries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No injuries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIS 0 and less than 10 % probability of AIS 1-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light and moderate injuries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More than 10 % probability of AIS 1-6 (and not S2 or S3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Severe and life-threatening injuries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Severe and life-threatening injuries (survival probable)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More than 10 % probability of AIS 3-6 (and not S3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Life-threatening or fatal injuries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Life-threatening injuries (survival uncertain), fatal injuries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More than 10 % probability of AIS 5-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controllability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controllable in general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simply controllable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99 % or more of all drivers or other traffic participants are usually able to avoid harm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normally controllable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90 % or more of all drivers or other traffic participants are usually able to avoid harm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficult to control or uncontrollable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less than 90 % of all drivers or other traffic participants are usually able, or barely able, to avoid harm</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
@@ -947,6 +992,20 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="16"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -954,21 +1013,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1094,17 +1139,24 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="thin"/>
       <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1118,13 +1170,6 @@
       <left/>
       <right style="thin"/>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -1231,15 +1276,67 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1247,7 +1344,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1267,7 +1364,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1275,47 +1372,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1323,7 +1396,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1331,91 +1404,63 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1494,12 +1539,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V12" activeCellId="0" sqref="V12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V16" activeCellId="0" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1922,7 +1967,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" s="16" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="16" customFormat="true" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
         <v>32</v>
       </c>
@@ -1992,7 +2037,7 @@
       <c r="AA12" s="15"/>
       <c r="AB12" s="15"/>
     </row>
-    <row r="13" s="16" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="16" customFormat="true" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
         <v>52</v>
       </c>
@@ -2062,31 +2107,69 @@
       <c r="AA13" s="15"/>
       <c r="AB13" s="15"/>
     </row>
-    <row r="14" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="16" customFormat="true" ht="79" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
+      <c r="I14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
@@ -2094,42 +2177,75 @@
       <c r="AA14" s="18"/>
       <c r="AB14" s="18"/>
     </row>
-    <row r="15" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="16" customFormat="true" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
+      <c r="I15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
       <c r="Y15" s="17"/>
       <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
       <c r="AB15" s="18"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>67</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2140,7 +2256,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="3" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2153,9 +2269,877 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="51.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="str">
+        <f aca="false">$A3 &amp; " - " &amp; $B3</f>
+        <v>E0 - Incredible</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="25" t="str">
+        <f aca="false">$A4 &amp; " - " &amp; $B4</f>
+        <v>E1 - Very low probability</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="25" t="str">
+        <f aca="false">$A5 &amp; " - " &amp; $B5</f>
+        <v>E2 - Low probability</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="25" t="str">
+        <f aca="false">$A6 &amp; " - " &amp; $B6</f>
+        <v>E3 - Medium probability</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="25" t="str">
+        <f aca="false">$A7 &amp; " - " &amp; $B7</f>
+        <v>E4 - High probability</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="25" t="str">
+        <f aca="false">$A12 &amp; " - " &amp; $B12</f>
+        <v>S0 - No injuries</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="25" t="str">
+        <f aca="false">$A13 &amp; " - " &amp; $B13</f>
+        <v>S1 - Light and moderate injuries</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="25" t="str">
+        <f aca="false">$A14 &amp; " - " &amp; $B14</f>
+        <v>S2 - Severe and life-threatening injuries</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="25" t="str">
+        <f aca="false">$A15 &amp; " - " &amp; $B15</f>
+        <v>S3 - Life-threatening or fatal injuries</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="25" t="str">
+        <f aca="false">$A20 &amp; " - " &amp; $B20</f>
+        <v>C0 - Controllable in general</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="25" t="str">
+        <f aca="false">$A21 &amp; " - " &amp; $B21</f>
+        <v>C1 - Simply controllable</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="25" t="str">
+        <f aca="false">$A22 &amp; " - " &amp; $B22</f>
+        <v>C2 - Normally controllable</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="25" t="str">
+        <f aca="false">$A23 &amp; " - " &amp; $B23</f>
+        <v>C3 - Difficult to control or uncontrollable</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T6" activeCellId="0" sqref="T6"/>
     </sheetView>
   </sheetViews>
@@ -2188,7 +3172,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19"/>
+      <c r="A1" s="33"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -2219,9 +3203,9 @@
       <c r="AC1" s="20"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
-        <v>68</v>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35" t="s">
+        <v>138</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -2259,7 +3243,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
-      <c r="I3" s="23"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
@@ -2285,35 +3269,35 @@
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25" t="s">
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="26" t="s">
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="26"/>
+      <c r="W4" s="39"/>
     </row>
     <row r="5" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="11"/>
@@ -2327,7 +3311,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>15</v>
@@ -2342,7 +3326,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>20</v>
@@ -2389,71 +3373,71 @@
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q6" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="S6" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="T6" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="U6" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="V6" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="W6" s="28" t="s">
-        <v>90</v>
+      <c r="D6" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q6" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="S6" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="T6" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="U6" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="V6" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="W6" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
@@ -2495,7 +3479,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="20"/>
-      <c r="B8" s="22"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -2557,8 +3541,8 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="20"/>
-      <c r="B10" s="22" t="s">
-        <v>91</v>
+      <c r="B10" s="35" t="s">
+        <v>159</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -2624,7 +3608,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -2671,7 +3655,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>15</v>
@@ -2686,7 +3670,7 @@
         <v>18</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>20</v>
@@ -2732,71 +3716,71 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="R14" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="S14" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="T14" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="U14" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="V14" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="W14" s="28" t="s">
-        <v>102</v>
+      <c r="C14" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="N14" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="R14" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="S14" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="T14" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="U14" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="V14" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="W14" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="X14" s="17"/>
       <c r="Y14" s="17"/>
@@ -2806,71 +3790,71 @@
       <c r="AC14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="O15" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q15" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="R15" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="S15" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="T15" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="U15" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="V15" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="W15" s="28" t="s">
-        <v>102</v>
+      <c r="C15" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q15" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="R15" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="S15" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="T15" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="U15" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="V15" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="W15" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="X15" s="17"/>
       <c r="Y15" s="17"/>
@@ -2880,71 +3864,71 @@
       <c r="AC15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q16" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="R16" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="S16" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="T16" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="U16" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="V16" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="W16" s="28" t="s">
-        <v>102</v>
+      <c r="C16" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="N16" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="O16" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q16" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="R16" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="S16" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="T16" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="U16" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="V16" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="W16" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
@@ -2954,71 +3938,71 @@
       <c r="AC16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q17" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="R17" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="S17" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="T17" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="U17" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="V17" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="W17" s="28" t="s">
-        <v>102</v>
+      <c r="B17" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="N17" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="O17" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="R17" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="S17" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="T17" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="U17" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="V17" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="W17" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
@@ -3028,71 +4012,71 @@
       <c r="AC17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="O18" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q18" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="R18" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="S18" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="T18" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="U18" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="V18" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="W18" s="28" t="s">
-        <v>102</v>
+      <c r="B18" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q18" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="R18" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="S18" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="T18" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="U18" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="V18" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="W18" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="X18" s="17"/>
       <c r="Y18" s="17"/>
@@ -4002,7 +4986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4023,1512 +5007,1512 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>70</v>
+      <c r="A2" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
+      <c r="A3" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="str">
+      <c r="A4" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV01</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="36" t="str">
+      <c r="B4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="25" t="str">
         <f aca="false">$A4 &amp; " - " &amp; $B4</f>
         <v>DV01 - Function not activated</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="str">
+      <c r="A5" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV02</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="36" t="str">
+      <c r="B5" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="25" t="str">
         <f aca="false">$A5 &amp; " - " &amp; $B5</f>
         <v>DV02 - Function unexpectedly activated</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="str">
+      <c r="A6" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV03</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="36" t="str">
+      <c r="B6" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="25" t="str">
         <f aca="false">$A6 &amp; " - " &amp; $B6</f>
         <v>DV03 - Function always activated</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="str">
+      <c r="A7" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV04</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="36" t="str">
+      <c r="C7" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="25" t="str">
         <f aca="false">$A7 &amp; " - " &amp; $B7</f>
         <v>DV04 - Actor effect is too much</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="str">
+      <c r="A8" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV05</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="36" t="str">
+      <c r="B8" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="25" t="str">
         <f aca="false">$A8 &amp; " - " &amp; $B8</f>
         <v>DV05 - Actor effect is too less</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="str">
+      <c r="A9" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV06</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="36" t="str">
+      <c r="B9" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="25" t="str">
         <f aca="false">$A9 &amp; " - " &amp; $B9</f>
         <v>DV06 - Actor action too early</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="str">
+      <c r="A10" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV07</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="36" t="str">
+      <c r="B10" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="25" t="str">
         <f aca="false">$A10 &amp; " - " &amp; $B10</f>
         <v>DV07 - Actor action too late</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="str">
+      <c r="A11" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV08</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="36" t="str">
+      <c r="B11" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="25" t="str">
         <f aca="false">$A11 &amp; " - " &amp; $B11</f>
         <v>DV08 - Actor action before</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="str">
+      <c r="A12" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV09</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="36" t="str">
+      <c r="B12" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="25" t="str">
         <f aca="false">$A12 &amp; " - " &amp; $B12</f>
         <v>DV09 - Actor action after</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="str">
+      <c r="A13" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV10</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="36" t="str">
+      <c r="B13" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="25" t="str">
         <f aca="false">$A13 &amp; " - " &amp; $B13</f>
         <v>DV10 - Actor effect is reverse</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="str">
+      <c r="A14" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV11</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="36" t="str">
+      <c r="B14" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="25" t="str">
         <f aca="false">$A14 &amp; " - " &amp; $B14</f>
         <v>DV11 - Actor effect is wrong</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="str">
+      <c r="A15" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV12</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="36" t="str">
+      <c r="B15" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="25" t="str">
         <f aca="false">$A15 &amp; " - " &amp; $B15</f>
         <v>DV12 - Sensor sensitivity is too high</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="str">
+      <c r="A16" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV13</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="36" t="str">
+      <c r="B16" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="25" t="str">
         <f aca="false">$A16 &amp; " - " &amp; $B16</f>
         <v>DV13 - Sensor sensitivity is too low</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="str">
+      <c r="A17" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV14</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" s="36" t="str">
+      <c r="B17" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="25" t="str">
         <f aca="false">$A17 &amp; " - " &amp; $B17</f>
         <v>DV14 - Sensor detection too early</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="str">
+      <c r="A18" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV15</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="36" t="str">
+      <c r="B18" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="25" t="str">
         <f aca="false">$A18 &amp; " - " &amp; $B18</f>
         <v>DV15 - Sensor detection too late</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="str">
+      <c r="A19" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV16</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="36" t="str">
+      <c r="B19" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="25" t="str">
         <f aca="false">$A19 &amp; " - " &amp; $B19</f>
         <v>DV16 - Sensor detection before</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="str">
+      <c r="A20" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV17</v>
       </c>
-      <c r="B20" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="36" t="str">
+      <c r="B20" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="25" t="str">
         <f aca="false">$A20 &amp; " - " &amp; $B20</f>
         <v>DV17 - Sensor detection after</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="str">
+      <c r="A21" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV18</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="36" t="str">
+      <c r="B21" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="25" t="str">
         <f aca="false">$A21 &amp; " - " &amp; $B21</f>
         <v>DV18 - Sensor detection is reverse</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="str">
+      <c r="A22" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV19</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="36" t="str">
+      <c r="B22" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="25" t="str">
         <f aca="false">$A22 &amp; " - " &amp; $B22</f>
         <v>DV19 - Sensor detection is wrong</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="str">
+      <c r="A23" s="44" t="str">
         <f aca="false">"DV" &amp; TEXT(ROW()-ROW($A$3), "00")</f>
         <v>DV20</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="36" t="str">
+      <c r="B23" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="25" t="str">
         <f aca="false">$A23 &amp; " - " &amp; $B23</f>
         <v>DV20 - N/A</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
+      <c r="A26" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
+      <c r="A27" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="43" t="str">
+      <c r="A28" s="50" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV-07</v>
       </c>
-      <c r="B28" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46" t="str">
+      <c r="B28" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53" t="str">
         <f aca="false">$A28 &amp; " - " &amp; $B28</f>
         <v>EV-07 - None</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="43" t="str">
+      <c r="A29" s="50" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV-06</v>
       </c>
-      <c r="B29" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46" t="str">
+      <c r="B29" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53" t="str">
         <f aca="false">$A29 &amp; " - " &amp; $B29</f>
         <v>EV-06 - Front collision with oncoming traffic</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="43" t="str">
+      <c r="A30" s="50" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV-05</v>
       </c>
-      <c r="B30" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46" t="str">
+      <c r="B30" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53" t="str">
         <f aca="false">$A30 &amp; " - " &amp; $B30</f>
         <v>EV-05 - Front collision with ahead traffic</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="43" t="str">
+      <c r="A31" s="50" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV-04</v>
       </c>
-      <c r="B31" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46" t="str">
+      <c r="B31" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53" t="str">
         <f aca="false">$A31 &amp; " - " &amp; $B31</f>
         <v>EV-04 - Front collision with obstacle</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="43" t="str">
+      <c r="A32" s="50" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV-03</v>
       </c>
-      <c r="B32" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46" t="str">
+      <c r="B32" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53" t="str">
         <f aca="false">$A32 &amp; " - " &amp; $B32</f>
         <v>EV-03 - Rear collision with trailing traffic</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="43" t="str">
+      <c r="A33" s="50" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV-02</v>
       </c>
-      <c r="B33" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46" t="str">
+      <c r="B33" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53" t="str">
         <f aca="false">$A33 &amp; " - " &amp; $B33</f>
         <v>EV-02 - Side collision with other traffic</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="43" t="str">
+      <c r="A34" s="50" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV-01</v>
       </c>
-      <c r="B34" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46" t="str">
+      <c r="B34" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53" t="str">
         <f aca="false">$A34 &amp; " - " &amp; $B34</f>
         <v>EV-01 - Side collision with obstacle</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="43" t="str">
+      <c r="A35" s="50" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV00</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46" t="str">
+      <c r="C35" s="52"/>
+      <c r="D35" s="53" t="str">
         <f aca="false">$A35 &amp; " - " &amp; $B35</f>
         <v>EV00 - Collision with other vehicle</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="43" t="str">
+      <c r="A36" s="50" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV01</v>
       </c>
-      <c r="B36" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46" t="str">
+      <c r="B36" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="53" t="str">
         <f aca="false">$A36 &amp; " - " &amp; $B36</f>
         <v>EV01 - Collision with train</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="43" t="str">
+      <c r="A37" s="50" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV02</v>
       </c>
-      <c r="B37" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46" t="str">
+      <c r="B37" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="53" t="str">
         <f aca="false">$A37 &amp; " - " &amp; $B37</f>
         <v>EV02 - Collision with pedestrian</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="43" t="str">
+      <c r="A38" s="50" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV03</v>
       </c>
-      <c r="B38" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="46" t="str">
+      <c r="B38" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53" t="str">
         <f aca="false">$A38 &amp; " - " &amp; $B38</f>
         <v>EV03 - Car spins out of control</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="43" t="str">
+      <c r="A39" s="50" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV04</v>
       </c>
-      <c r="B39" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46" t="str">
+      <c r="B39" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="53" t="str">
         <f aca="false">$A39 &amp; " - " &amp; $B39</f>
         <v>EV04 - Car comes off the road</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="43" t="str">
+      <c r="A40" s="50" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV05</v>
       </c>
-      <c r="B40" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="46" t="str">
+      <c r="B40" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="C40" s="52"/>
+      <c r="D40" s="53" t="str">
         <f aca="false">$A40 &amp; " - " &amp; $B40</f>
         <v>EV05 - Car catches file</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="43" t="str">
+      <c r="A41" s="50" t="str">
         <f aca="false">"EV" &amp; TEXT(ROW()-ROW($A$35), "00")</f>
         <v>EV06</v>
       </c>
-      <c r="B41" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46" t="str">
+      <c r="B41" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53" t="str">
         <f aca="false">$A41 &amp; " - " &amp; $B41</f>
         <v>EV06 - N/A</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="47"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="30"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
     </row>
     <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -5542,7 +6526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5582,8 +6566,8 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>178</v>
+      <c r="A1" s="33" t="s">
+        <v>243</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -5639,7 +6623,7 @@
       <c r="Z2" s="20"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="20"/>
@@ -5669,17 +6653,17 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>140</v>
+      <c r="A4" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -5705,17 +6689,17 @@
       <c r="Z4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="str">
+      <c r="A5" s="44" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM01</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="36" t="str">
+      <c r="B5" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="25" t="str">
         <f aca="false">$A5 &amp; " - " &amp; $B5</f>
         <v>OM01 - Parked</v>
       </c>
@@ -5743,17 +6727,17 @@
       <c r="Z5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="str">
+      <c r="A6" s="44" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM02</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="36" t="str">
+      <c r="B6" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="25" t="str">
         <f aca="false">$A6 &amp; " - " &amp; $B6</f>
         <v>OM02 - Ignition on</v>
       </c>
@@ -5781,17 +6765,17 @@
       <c r="Z6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="str">
+      <c r="A7" s="44" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM03</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="36" t="str">
+      <c r="B7" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="25" t="str">
         <f aca="false">$A7 &amp; " - " &amp; $B7</f>
         <v>OM03 - Normal driving</v>
       </c>
@@ -5819,17 +6803,17 @@
       <c r="Z7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="str">
+      <c r="A8" s="44" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM04</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="36" t="str">
+      <c r="B8" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="25" t="str">
         <f aca="false">$A8 &amp; " - " &amp; $B8</f>
         <v>OM04 - Backward driving</v>
       </c>
@@ -5857,17 +6841,17 @@
       <c r="Z8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="str">
+      <c r="A9" s="44" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM05</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" s="36" t="str">
+      <c r="B9" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="25" t="str">
         <f aca="false">$A9 &amp; " - " &amp; $B9</f>
         <v>OM05 - Degraded driving</v>
       </c>
@@ -5895,17 +6879,17 @@
       <c r="Z9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="str">
+      <c r="A10" s="44" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM06</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" s="36" t="str">
+      <c r="B10" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="25" t="str">
         <f aca="false">$A10 &amp; " - " &amp; $B10</f>
         <v>OM06 - Towing (active)</v>
       </c>
@@ -5933,17 +6917,17 @@
       <c r="Z10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="str">
+      <c r="A11" s="44" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM07</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="36" t="str">
+      <c r="B11" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" s="25" t="str">
         <f aca="false">$A11 &amp; " - " &amp; $B11</f>
         <v>OM07 - Towing (passive)</v>
       </c>
@@ -5971,17 +6955,17 @@
       <c r="Z11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="str">
+      <c r="A12" s="44" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM08</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="36" t="str">
+      <c r="B12" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" s="25" t="str">
         <f aca="false">$A12 &amp; " - " &amp; $B12</f>
         <v>OM08 - Service</v>
       </c>
@@ -6009,17 +6993,17 @@
       <c r="Z12" s="20"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="str">
+      <c r="A13" s="44" t="str">
         <f aca="false">"OM" &amp; TEXT(ROW()-ROW($A$4), "00")</f>
         <v>OM09</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13" s="36" t="str">
+      <c r="B13" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="25" t="str">
         <f aca="false">$A13 &amp; " - " &amp; $B13</f>
         <v>OM09 - N/A</v>
       </c>
@@ -6047,10 +7031,10 @@
       <c r="Z13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
@@ -6103,7 +7087,7 @@
       <c r="Z15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="20"/>
@@ -6133,17 +7117,17 @@
       <c r="Z16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>140</v>
+      <c r="A17" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -6169,17 +7153,17 @@
       <c r="Z17" s="20"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="str">
+      <c r="A18" s="44" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS01</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" s="36" t="str">
+      <c r="B18" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="25" t="str">
         <f aca="false">$A18 &amp; " - " &amp; $B18</f>
         <v>OS01 - Any Road</v>
       </c>
@@ -6207,17 +7191,17 @@
       <c r="Z18" s="20"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="str">
+      <c r="A19" s="44" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS02</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="36" t="str">
+      <c r="B19" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="25" t="str">
         <f aca="false">$A19 &amp; " - " &amp; $B19</f>
         <v>OS02 - City Road</v>
       </c>
@@ -6245,17 +7229,17 @@
       <c r="Z19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="str">
+      <c r="A20" s="44" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS03</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="36" t="str">
+      <c r="C20" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" s="25" t="str">
         <f aca="false">$A20 &amp; " - " &amp; $B20</f>
         <v>OS03 - Country Road</v>
       </c>
@@ -6283,17 +7267,17 @@
       <c r="Z20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="str">
+      <c r="A21" s="44" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS04</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="36" t="str">
+      <c r="C21" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="25" t="str">
         <f aca="false">$A21 &amp; " - " &amp; $B21</f>
         <v>OS04 - Highway</v>
       </c>
@@ -6321,17 +7305,17 @@
       <c r="Z21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="str">
+      <c r="A22" s="44" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS05</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" s="36" t="str">
+      <c r="B22" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="25" t="str">
         <f aca="false">$A22 &amp; " - " &amp; $B22</f>
         <v>OS05 - Mountain Pass</v>
       </c>
@@ -6359,17 +7343,17 @@
       <c r="Z22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="str">
+      <c r="A23" s="44" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS06</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="36" t="str">
+      <c r="B23" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="25" t="str">
         <f aca="false">$A23 &amp; " - " &amp; $B23</f>
         <v>OS06 - Off Road</v>
       </c>
@@ -6397,17 +7381,17 @@
       <c r="Z23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="str">
+      <c r="A24" s="44" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS07</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="36" t="str">
+      <c r="B24" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="25" t="str">
         <f aca="false">$A24 &amp; " - " &amp; $B24</f>
         <v>OS07 - Road with gradient</v>
       </c>
@@ -6435,17 +7419,17 @@
       <c r="Z24" s="20"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="str">
+      <c r="A25" s="44" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS08</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="36" t="str">
+      <c r="B25" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="25" t="str">
         <f aca="false">$A25 &amp; " - " &amp; $B25</f>
         <v>OS08 - Road with bump</v>
       </c>
@@ -6473,17 +7457,17 @@
       <c r="Z25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="str">
+      <c r="A26" s="44" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS09</v>
       </c>
-      <c r="B26" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" s="36" t="str">
+      <c r="B26" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="25" t="str">
         <f aca="false">$A26 &amp; " - " &amp; $B26</f>
         <v>OS09 - Road tunnel</v>
       </c>
@@ -6511,17 +7495,17 @@
       <c r="Z26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="str">
+      <c r="A27" s="44" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS10</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="36" t="str">
+      <c r="B27" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="25" t="str">
         <f aca="false">$A27 &amp; " - " &amp; $B27</f>
         <v>OS10 - Road with construction site</v>
       </c>
@@ -6549,17 +7533,17 @@
       <c r="Z27" s="20"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="str">
+      <c r="A28" s="44" t="str">
         <f aca="false">"OS" &amp; TEXT(ROW()-ROW($A$17), "00")</f>
         <v>OS11</v>
       </c>
-      <c r="B28" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="36" t="str">
+      <c r="B28" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="25" t="str">
         <f aca="false">$A28 &amp; " - " &amp; $B28</f>
         <v>OS11 - N/A</v>
       </c>
@@ -6587,10 +7571,10 @@
       <c r="Z28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
@@ -6643,7 +7627,7 @@
       <c r="Z30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="20"/>
@@ -6673,17 +7657,17 @@
       <c r="Z31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>140</v>
+      <c r="A32" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -6709,17 +7693,17 @@
       <c r="Z32" s="20"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="34" t="str">
+      <c r="A33" s="44" t="str">
         <f aca="false">"SD" &amp; TEXT(ROW()-ROW($A$32), "00")</f>
         <v>SD01</v>
       </c>
-      <c r="B33" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="D33" s="36" t="str">
+      <c r="B33" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" s="25" t="str">
         <f aca="false">$A33 &amp; " - " &amp; $B33</f>
         <v>SD01 - Low speed</v>
       </c>
@@ -6747,17 +7731,17 @@
       <c r="Z33" s="20"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34" t="str">
+      <c r="A34" s="44" t="str">
         <f aca="false">"SD" &amp; TEXT(ROW()-ROW($A$32), "00")</f>
         <v>SD02</v>
       </c>
-      <c r="B34" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="D34" s="36" t="str">
+      <c r="B34" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" s="25" t="str">
         <f aca="false">$A34 &amp; " - " &amp; $B34</f>
         <v>SD02 - High speed</v>
       </c>
@@ -6785,17 +7769,17 @@
       <c r="Z34" s="20"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34" t="str">
+      <c r="A35" s="44" t="str">
         <f aca="false">"SD" &amp; TEXT(ROW()-ROW($A$32), "00")</f>
         <v>SD03</v>
       </c>
-      <c r="B35" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="D35" s="36" t="str">
+      <c r="B35" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D35" s="25" t="str">
         <f aca="false">$A35 &amp; " - " &amp; $B35</f>
         <v>SD03 - Normal acceleration</v>
       </c>
@@ -6823,17 +7807,17 @@
       <c r="Z35" s="20"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="34" t="str">
+      <c r="A36" s="44" t="str">
         <f aca="false">"SD" &amp; TEXT(ROW()-ROW($A$32), "00")</f>
         <v>SD04</v>
       </c>
-      <c r="B36" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="D36" s="36" t="str">
+      <c r="B36" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="25" t="str">
         <f aca="false">$A36 &amp; " - " &amp; $B36</f>
         <v>SD04 - High acceleration</v>
       </c>
@@ -6861,17 +7845,17 @@
       <c r="Z36" s="20"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="34" t="str">
+      <c r="A37" s="44" t="str">
         <f aca="false">"SD" &amp; TEXT(ROW()-ROW($A$32), "00")</f>
         <v>SD05</v>
       </c>
-      <c r="B37" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" s="36" t="str">
+      <c r="B37" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="25" t="str">
         <f aca="false">$A37 &amp; " - " &amp; $B37</f>
         <v>SD05 - Normal braking</v>
       </c>
@@ -6899,17 +7883,17 @@
       <c r="Z37" s="20"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="34" t="str">
+      <c r="A38" s="44" t="str">
         <f aca="false">"SD" &amp; TEXT(ROW()-ROW($A$32), "00")</f>
         <v>SD06</v>
       </c>
-      <c r="B38" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="D38" s="36" t="str">
+      <c r="B38" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" s="25" t="str">
         <f aca="false">$A38 &amp; " - " &amp; $B38</f>
         <v>SD06 - High braking</v>
       </c>
@@ -6937,17 +7921,17 @@
       <c r="Z38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="34" t="str">
+      <c r="A39" s="44" t="str">
         <f aca="false">"SD" &amp; TEXT(ROW()-ROW($A$32), "00")</f>
         <v>SD07</v>
       </c>
-      <c r="B39" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="36" t="str">
+      <c r="B39" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="25" t="str">
         <f aca="false">$A39 &amp; " - " &amp; $B39</f>
         <v>SD07 - N/A</v>
       </c>
@@ -6975,10 +7959,10 @@
       <c r="Z39" s="20"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
@@ -7031,8 +8015,8 @@
       <c r="Z41" s="20"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31" t="s">
-        <v>212</v>
+      <c r="A42" s="19" t="s">
+        <v>277</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -7061,17 +8045,17 @@
       <c r="Z42" s="20"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>140</v>
+      <c r="A43" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -7097,17 +8081,17 @@
       <c r="Z43" s="20"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="34" t="str">
+      <c r="A44" s="44" t="str">
         <f aca="false">"IU" &amp; TEXT(ROW()-ROW($A$43), "00")</f>
         <v>IU01</v>
       </c>
-      <c r="B44" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="D44" s="36" t="str">
+      <c r="B44" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="D44" s="25" t="str">
         <f aca="false">$A44 &amp; " - " &amp; $B44</f>
         <v>IU01 - Correctly used</v>
       </c>
@@ -7135,17 +8119,17 @@
       <c r="Z44" s="20"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="34" t="str">
+      <c r="A45" s="44" t="str">
         <f aca="false">"IU" &amp; TEXT(ROW()-ROW($A$43), "00")</f>
         <v>IU02</v>
       </c>
-      <c r="B45" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="D45" s="36" t="str">
+      <c r="B45" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D45" s="25" t="str">
         <f aca="false">$A45 &amp; " - " &amp; $B45</f>
         <v>IU02 - Incorrectly used</v>
       </c>
@@ -7173,17 +8157,17 @@
       <c r="Z45" s="20"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="34" t="str">
+      <c r="A46" s="44" t="str">
         <f aca="false">"IU" &amp; TEXT(ROW()-ROW($A$43), "00")</f>
         <v>IU03</v>
       </c>
-      <c r="B46" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" s="36" t="str">
+      <c r="B46" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D46" s="25" t="str">
         <f aca="false">$A46 &amp; " - " &amp; $B46</f>
         <v>IU03 - N/A</v>
       </c>
@@ -7211,10 +8195,10 @@
       <c r="Z46" s="20"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
@@ -7267,7 +8251,7 @@
       <c r="Z48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="20"/>
@@ -7297,17 +8281,17 @@
       <c r="Z49" s="20"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>140</v>
+      <c r="A50" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -7333,17 +8317,17 @@
       <c r="Z50" s="20"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="34" t="str">
+      <c r="A51" s="44" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN01</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="D51" s="36" t="str">
+      <c r="C51" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="D51" s="25" t="str">
         <f aca="false">$A51 &amp; " - " &amp; $B51</f>
         <v>EN01 - Normal conditions</v>
       </c>
@@ -7371,17 +8355,17 @@
       <c r="Z51" s="20"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="34" t="str">
+      <c r="A52" s="44" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN02</v>
       </c>
-      <c r="B52" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="D52" s="36" t="str">
+      <c r="B52" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="D52" s="25" t="str">
         <f aca="false">$A52 &amp; " - " &amp; $B52</f>
         <v>EN02 - Sun blares (degraded view)</v>
       </c>
@@ -7409,17 +8393,17 @@
       <c r="Z52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="34" t="str">
+      <c r="A53" s="44" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN03</v>
       </c>
-      <c r="B53" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="D53" s="36" t="str">
+      <c r="B53" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" s="25" t="str">
         <f aca="false">$A53 &amp; " - " &amp; $B53</f>
         <v>EN03 - Fog (degraded view)</v>
       </c>
@@ -7447,17 +8431,17 @@
       <c r="Z53" s="20"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="34" t="str">
+      <c r="A54" s="44" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN04</v>
       </c>
-      <c r="B54" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="D54" s="36" t="str">
+      <c r="B54" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" s="25" t="str">
         <f aca="false">$A54 &amp; " - " &amp; $B54</f>
         <v>EN04 - Snowfall (degraded view)</v>
       </c>
@@ -7485,17 +8469,17 @@
       <c r="Z54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="34" t="str">
+      <c r="A55" s="44" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN05</v>
       </c>
-      <c r="B55" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="D55" s="36" t="str">
+      <c r="B55" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" s="25" t="str">
         <f aca="false">$A55 &amp; " - " &amp; $B55</f>
         <v>EN05 - Cross-wind (lateral force)</v>
       </c>
@@ -7523,17 +8507,17 @@
       <c r="Z55" s="20"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="34" t="str">
+      <c r="A56" s="44" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN06</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D56" s="36" t="str">
+      <c r="C56" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" s="25" t="str">
         <f aca="false">$A56 &amp; " - " &amp; $B56</f>
         <v>EN06 - Rain (slippery road)</v>
       </c>
@@ -7561,17 +8545,17 @@
       <c r="Z56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="34" t="str">
+      <c r="A57" s="44" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN07</v>
       </c>
-      <c r="B57" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D57" s="36" t="str">
+      <c r="B57" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" s="25" t="str">
         <f aca="false">$A57 &amp; " - " &amp; $B57</f>
         <v>EN07 - Snow (slippery road)</v>
       </c>
@@ -7599,17 +8583,17 @@
       <c r="Z57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="34" t="str">
+      <c r="A58" s="44" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN08</v>
       </c>
-      <c r="B58" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="36" t="str">
+      <c r="B58" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" s="25" t="str">
         <f aca="false">$A58 &amp; " - " &amp; $B58</f>
         <v>EN08 - Glace (slippery road)</v>
       </c>
@@ -7637,17 +8621,17 @@
       <c r="Z58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="34" t="str">
+      <c r="A59" s="44" t="str">
         <f aca="false">"EN" &amp; TEXT(ROW()-ROW($A$50), "00")</f>
         <v>EN09</v>
       </c>
-      <c r="B59" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" s="36" t="str">
+      <c r="B59" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D59" s="25" t="str">
         <f aca="false">$A59 &amp; " - " &amp; $B59</f>
         <v>EN09 - N/A</v>
       </c>
@@ -7675,10 +8659,10 @@
       <c r="Z59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
@@ -8617,874 +9601,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z24"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="51.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="str">
-        <f aca="false">$A3 &amp; " - " &amp; $B3</f>
-        <v>E0 - Incredible</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" s="36" t="str">
-        <f aca="false">$A4 &amp; " - " &amp; $B4</f>
-        <v>E1 - Very low probability</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="36" t="str">
-        <f aca="false">$A5 &amp; " - " &amp; $B5</f>
-        <v>E2 - Low probability</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="E6" s="36" t="str">
-        <f aca="false">$A6 &amp; " - " &amp; $B6</f>
-        <v>E3 - Medium probability</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="36" t="str">
-        <f aca="false">$A7 &amp; " - " &amp; $B7</f>
-        <v>E4 - High probability</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="E12" s="36" t="str">
-        <f aca="false">$A12 &amp; " - " &amp; $B12</f>
-        <v>S0 - No injuries</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="49" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="36" t="str">
-        <f aca="false">$A13 &amp; " - " &amp; $B13</f>
-        <v>S1 - Light and moderate injuries</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="E14" s="36" t="str">
-        <f aca="false">$A14 &amp; " - " &amp; $B14</f>
-        <v>S2 - Severe and life-threatening injuries</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="49" t="s">
-        <v>258</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="E15" s="36" t="str">
-        <f aca="false">$A15 &amp; " - " &amp; $B15</f>
-        <v>S3 - Life-threatening or fatal injuries</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="36" t="str">
-        <f aca="false">$A20 &amp; " - " &amp; $B20</f>
-        <v>C0 - Controllable in general</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>267</v>
-      </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="36" t="str">
-        <f aca="false">$A21 &amp; " - " &amp; $B21</f>
-        <v>C1 - Simply controllable</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>270</v>
-      </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="36" t="str">
-        <f aca="false">$A22 &amp; " - " &amp; $B22</f>
-        <v>C2 - Normally controllable</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="36" t="str">
-        <f aca="false">$A23 &amp; " - " &amp; $B23</f>
-        <v>C3 - Difficult to control or uncontrollable</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -9493,7 +9609,7 @@
   <dimension ref="B2:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9503,13 +9619,13 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="56" t="s">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="E2" s="58"/>
       <c r="F2" s="58"/>
@@ -9519,238 +9635,238 @@
       <c r="B3" s="56"/>
       <c r="C3" s="57"/>
       <c r="D3" s="59" t="s">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>258</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="60" t="s">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="60"/>
       <c r="C5" s="61" t="s">
-        <v>234</v>
+        <v>97</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="60"/>
       <c r="C6" s="61" t="s">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G6" s="62" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="60"/>
       <c r="C7" s="61" t="s">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="F7" s="62" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="60" t="s">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="60"/>
       <c r="C9" s="61" t="s">
-        <v>234</v>
+        <v>97</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="60"/>
       <c r="C10" s="61" t="s">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="F10" s="62" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="60"/>
       <c r="C11" s="61" t="s">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="60" t="s">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="60"/>
       <c r="C13" s="61" t="s">
-        <v>234</v>
+        <v>97</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="F13" s="62" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="60"/>
       <c r="C14" s="61" t="s">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="60"/>
       <c r="C15" s="61" t="s">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
